--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>3063.791702930899</v>
+        <v>4257.877843926121</v>
       </c>
       <c r="R2">
-        <v>27574.12532637809</v>
+        <v>38320.9005953351</v>
       </c>
       <c r="S2">
-        <v>0.003723327797897544</v>
+        <v>0.00484461683055223</v>
       </c>
       <c r="T2">
-        <v>0.003723327797897544</v>
+        <v>0.00484461683055223</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>3368.530180613955</v>
+        <v>4932.908995695389</v>
       </c>
       <c r="R3">
-        <v>30316.77162552559</v>
+        <v>44396.18096125851</v>
       </c>
       <c r="S3">
-        <v>0.004093666696576874</v>
+        <v>0.005612667817189506</v>
       </c>
       <c r="T3">
-        <v>0.004093666696576874</v>
+        <v>0.005612667817189506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>1867.116368100402</v>
+        <v>3744.287762088982</v>
       </c>
       <c r="R4">
-        <v>16804.04731290361</v>
+        <v>33698.58985880083</v>
       </c>
       <c r="S4">
-        <v>0.002269046641978755</v>
+        <v>0.004260253622945826</v>
       </c>
       <c r="T4">
-        <v>0.002269046641978755</v>
+        <v>0.004260253622945826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>1358.795694143063</v>
+        <v>1921.765341058234</v>
       </c>
       <c r="R5">
-        <v>12229.16124728756</v>
+        <v>17295.88806952411</v>
       </c>
       <c r="S5">
-        <v>0.001651300829239324</v>
+        <v>0.002186586148530241</v>
       </c>
       <c r="T5">
-        <v>0.001651300829239324</v>
+        <v>0.002186586148530241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>251379.7145392412</v>
+        <v>238562.1443986763</v>
       </c>
       <c r="R6">
-        <v>2262417.430853171</v>
+        <v>2147059.299588087</v>
       </c>
       <c r="S6">
-        <v>0.3054937050962489</v>
+        <v>0.2714361994990366</v>
       </c>
       <c r="T6">
-        <v>0.3054937050962489</v>
+        <v>0.2714361994990366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>276383.0695179126</v>
@@ -883,10 +883,10 @@
         <v>2487447.625661213</v>
       </c>
       <c r="S7">
-        <v>0.3358794805207758</v>
+        <v>0.314468878475744</v>
       </c>
       <c r="T7">
-        <v>0.3358794805207758</v>
+        <v>0.314468878475744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>153194.2198210234</v>
+        <v>209786.5064503638</v>
       </c>
       <c r="R8">
-        <v>1378747.978389211</v>
+        <v>1888078.558053274</v>
       </c>
       <c r="S8">
-        <v>0.1861720222661325</v>
+        <v>0.238695255530168</v>
       </c>
       <c r="T8">
-        <v>0.1861720222661325</v>
+        <v>0.238695255530168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>111487.2376552477</v>
+        <v>107673.4649510674</v>
       </c>
       <c r="R9">
-        <v>1003385.138897229</v>
+        <v>969061.1845596071</v>
       </c>
       <c r="S9">
-        <v>0.135486864422113</v>
+        <v>0.1225109548997357</v>
       </c>
       <c r="T9">
-        <v>0.135486864422113</v>
+        <v>0.1225109548997357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>3899.041859442804</v>
+        <v>5448.060700003659</v>
       </c>
       <c r="R10">
-        <v>35091.37673498524</v>
+        <v>49032.54630003293</v>
       </c>
       <c r="S10">
-        <v>0.004738380525850306</v>
+        <v>0.006198807840097784</v>
       </c>
       <c r="T10">
-        <v>0.004738380525850307</v>
+        <v>0.006198807840097783</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>4286.858067552663</v>
+        <v>6311.779863407673</v>
       </c>
       <c r="R11">
-        <v>38581.72260797397</v>
+        <v>56806.01877066906</v>
       </c>
       <c r="S11">
-        <v>0.005209681125936573</v>
+        <v>0.00718154819791867</v>
       </c>
       <c r="T11">
-        <v>0.005209681125936573</v>
+        <v>0.007181548197918668</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>2376.129182904337</v>
+        <v>4790.909404608925</v>
       </c>
       <c r="R12">
-        <v>21385.16264613903</v>
+        <v>43118.18464148032</v>
       </c>
       <c r="S12">
-        <v>0.002887633591291449</v>
+        <v>0.005451100568403739</v>
       </c>
       <c r="T12">
-        <v>0.002887633591291448</v>
+        <v>0.005451100568403738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>1729.230249179878</v>
+        <v>2458.946595704673</v>
       </c>
       <c r="R13">
-        <v>15563.0722426189</v>
+        <v>22130.51936134206</v>
       </c>
       <c r="S13">
-        <v>0.002101478063791842</v>
+        <v>0.002797791411506419</v>
       </c>
       <c r="T13">
-        <v>0.002101478063791842</v>
+        <v>0.002797791411506418</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>2686.883594774868</v>
+        <v>3615.879712417026</v>
       </c>
       <c r="R14">
-        <v>24181.95235297382</v>
+        <v>32542.91741175324</v>
       </c>
       <c r="S14">
-        <v>0.003265283461852165</v>
+        <v>0.004114150840897593</v>
       </c>
       <c r="T14">
-        <v>0.003265283461852166</v>
+        <v>0.004114150840897592</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>2954.133099889719</v>
+        <v>4189.130410629013</v>
       </c>
       <c r="R15">
-        <v>26587.19789900747</v>
+        <v>37702.17369566112</v>
       </c>
       <c r="S15">
-        <v>0.003590063214475879</v>
+        <v>0.00476639594573198</v>
       </c>
       <c r="T15">
-        <v>0.003590063214475879</v>
+        <v>0.004766395945731979</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>1637.423436516745</v>
+        <v>3179.728177430497</v>
       </c>
       <c r="R16">
-        <v>14736.8109286507</v>
+        <v>28617.55359687447</v>
       </c>
       <c r="S16">
-        <v>0.001989908188692952</v>
+        <v>0.003617897274092919</v>
       </c>
       <c r="T16">
-        <v>0.001989908188692952</v>
+        <v>0.003617897274092919</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>1191.636447004918</v>
+        <v>1632.003679643193</v>
       </c>
       <c r="R17">
-        <v>10724.72802304426</v>
+        <v>14688.03311678874</v>
       </c>
       <c r="S17">
-        <v>0.001448157557146222</v>
+        <v>0.00185689509744887</v>
       </c>
       <c r="T17">
-        <v>0.001448157557146222</v>
+        <v>0.00185689509744887</v>
       </c>
     </row>
   </sheetData>
